--- a/dataExcel/【M4A1 消音型 _ 梦魇 (破损不堪)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【M4A1 消音型 _ 梦魇 (破损不堪)】Buff近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,319 +422,319 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 17:54:37</v>
+        <v>2023-09-17 19:38:33</v>
       </c>
       <c r="B8">
-        <v>44.99</v>
+        <v>45.5</v>
       </c>
       <c r="C8">
-        <v>63.07</v>
+        <v>62.12</v>
       </c>
       <c r="D8">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E8">
-        <v>43.7</v>
+        <v>44.5</v>
       </c>
       <c r="F8">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 21:35:46</v>
+        <v>2023-09-17 23:17:39</v>
       </c>
       <c r="B9">
-        <v>45.78</v>
+        <v>46.99</v>
       </c>
       <c r="C9">
-        <v>64.16</v>
+        <v>59.79</v>
       </c>
       <c r="D9">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E9">
-        <v>43.8</v>
+        <v>44.4</v>
       </c>
       <c r="F9">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 01:19:10</v>
+        <v>2023-09-18 02:59:31</v>
       </c>
       <c r="B10">
-        <v>46.1</v>
+        <v>46.99</v>
       </c>
       <c r="C10">
-        <v>61.69</v>
+        <v>65.25</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E10">
-        <v>43.8</v>
+        <v>44.7</v>
       </c>
       <c r="F10">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 04:55:34</v>
+        <v>2023-09-18 06:42:45</v>
       </c>
       <c r="B11">
-        <v>46.6</v>
+        <v>46.79</v>
       </c>
       <c r="C11">
-        <v>62.85</v>
+        <v>63.65</v>
       </c>
       <c r="D11">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="E11">
-        <v>43.9</v>
+        <v>44.7</v>
       </c>
       <c r="F11">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 08:31:25</v>
+        <v>2023-09-18 10:23:34</v>
       </c>
       <c r="B12">
-        <v>46.6</v>
+        <v>46.78</v>
       </c>
       <c r="C12">
-        <v>64.38</v>
+        <v>60.59</v>
       </c>
       <c r="D12">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="E12">
-        <v>43.8</v>
+        <v>44.7</v>
       </c>
       <c r="F12">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 12:14:01</v>
+        <v>2023-09-18 14:00:38</v>
       </c>
       <c r="B13">
-        <v>45.8</v>
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>65.83</v>
+        <v>63.14</v>
       </c>
       <c r="D13">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="E13">
-        <v>43.8</v>
+        <v>44.7</v>
       </c>
       <c r="F13">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 15:51:38</v>
+        <v>2023-09-18 17:37:40</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>44.5</v>
       </c>
       <c r="C14">
-        <v>65.83</v>
+        <v>57.98</v>
       </c>
       <c r="D14">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="E14">
-        <v>44.2</v>
+        <v>44.6</v>
       </c>
       <c r="F14">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 19:38:33</v>
+        <v>2023-09-18 21:16:26</v>
       </c>
       <c r="B15">
-        <v>45.5</v>
+        <v>45.98</v>
       </c>
       <c r="C15">
-        <v>62.12</v>
+        <v>63.14</v>
       </c>
       <c r="D15">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E15">
-        <v>44.5</v>
+        <v>44.7</v>
       </c>
       <c r="F15">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-17 23:17:39</v>
+        <v>2023-09-19 00:58:04</v>
       </c>
       <c r="B16">
-        <v>46.99</v>
+        <v>45.98</v>
       </c>
       <c r="C16">
-        <v>59.79</v>
+        <v>58.12</v>
       </c>
       <c r="D16">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E16">
-        <v>44.4</v>
+        <v>44.7</v>
       </c>
       <c r="F16">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 02:59:31</v>
+        <v>2023-09-19 04:40:29</v>
       </c>
       <c r="B17">
-        <v>46.99</v>
+        <v>45.88</v>
       </c>
       <c r="C17">
-        <v>65.25</v>
+        <v>64.09</v>
       </c>
       <c r="D17">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E17">
         <v>44.7</v>
       </c>
       <c r="F17">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 06:42:45</v>
+        <v>2023-09-19 08:23:29</v>
       </c>
       <c r="B18">
-        <v>46.79</v>
+        <v>45.88</v>
       </c>
       <c r="C18">
-        <v>63.65</v>
+        <v>60.38</v>
       </c>
       <c r="D18">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E18">
         <v>44.7</v>
       </c>
       <c r="F18">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 10:23:34</v>
+        <v>2023-09-19 12:02:53</v>
       </c>
       <c r="B19">
-        <v>46.78</v>
+        <v>44.99</v>
       </c>
       <c r="C19">
-        <v>60.59</v>
+        <v>64.17</v>
       </c>
       <c r="D19">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E19">
         <v>44.7</v>
       </c>
       <c r="F19">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 14:00:38</v>
+        <v>2023-09-19 15:44:45</v>
       </c>
       <c r="B20">
-        <v>44</v>
+        <v>46.29</v>
       </c>
       <c r="C20">
-        <v>63.14</v>
+        <v>58.34</v>
       </c>
       <c r="D20">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E20">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="F20">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-18 17:37:40</v>
+        <v>2023-09-19 19:19:10</v>
       </c>
       <c r="B21">
-        <v>44.5</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>57.98</v>
+        <v>57.46</v>
       </c>
       <c r="D21">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E21">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="F21">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-18 21:16:26</v>
+        <v>2023-09-19 22:55:13</v>
       </c>
       <c r="B22">
-        <v>45.98</v>
+        <v>44.8</v>
       </c>
       <c r="C22">
-        <v>63.14</v>
+        <v>59.87</v>
       </c>
       <c r="D22">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E22">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="F22">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 00:58:04</v>
+        <v>2023-09-20 02:35:11</v>
       </c>
       <c r="B23">
-        <v>45.98</v>
+        <v>44.7</v>
       </c>
       <c r="C23">
-        <v>58.12</v>
+        <v>60.02</v>
       </c>
       <c r="D23">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E23">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="F23">
         <v>67</v>
@@ -742,19 +742,19 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-19 04:40:29</v>
+        <v>2023-09-20 06:11:01</v>
       </c>
       <c r="B24">
-        <v>45.88</v>
+        <v>44.7</v>
       </c>
       <c r="C24">
-        <v>64.09</v>
+        <v>59.11</v>
       </c>
       <c r="D24">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E24">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="F24">
         <v>67</v>
@@ -762,1099 +762,1099 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-19 08:23:29</v>
+        <v>2023-09-20 09:53:37</v>
       </c>
       <c r="B25">
-        <v>45.88</v>
+        <v>44.8</v>
       </c>
       <c r="C25">
-        <v>60.38</v>
+        <v>61.88</v>
       </c>
       <c r="D25">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E25">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="F25">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-19 12:02:53</v>
+        <v>2023-09-20 13:31:56</v>
       </c>
       <c r="B26">
-        <v>44.99</v>
+        <v>45.28</v>
       </c>
       <c r="C26">
-        <v>64.17</v>
+        <v>58.31</v>
       </c>
       <c r="D26">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E26">
         <v>44.7</v>
       </c>
       <c r="F26">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-19 15:44:45</v>
+        <v>2023-09-20 17:12:47</v>
       </c>
       <c r="B27">
-        <v>46.29</v>
+        <v>44.9</v>
       </c>
       <c r="C27">
-        <v>58.34</v>
+        <v>59.25</v>
       </c>
       <c r="D27">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E27">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="F27">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-19 19:19:10</v>
+        <v>2023-09-20 20:50:50</v>
       </c>
       <c r="B28">
-        <v>46</v>
+        <v>43.99</v>
       </c>
       <c r="C28">
-        <v>57.46</v>
+        <v>58.16</v>
       </c>
       <c r="D28">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E28">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="F28">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-19 22:55:13</v>
+        <v>2023-09-21 00:24:39</v>
       </c>
       <c r="B29">
-        <v>44.8</v>
+        <v>44.49</v>
       </c>
       <c r="C29">
-        <v>59.87</v>
+        <v>59.18</v>
       </c>
       <c r="D29">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E29">
-        <v>44.9</v>
+        <v>44.6</v>
       </c>
       <c r="F29">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-20 02:35:11</v>
+        <v>2023-09-21 00:33:05</v>
       </c>
       <c r="B30">
-        <v>44.7</v>
+        <v>44.49</v>
       </c>
       <c r="C30">
-        <v>60.02</v>
+        <v>59.18</v>
       </c>
       <c r="D30">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E30">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="F30">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-20 06:11:01</v>
+        <v>2023-09-21 04:12:00</v>
       </c>
       <c r="B31">
-        <v>44.7</v>
+        <v>45.74</v>
       </c>
       <c r="C31">
-        <v>59.11</v>
+        <v>64.34</v>
       </c>
       <c r="D31">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E31">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="F31">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-20 09:53:37</v>
+        <v>2023-09-21 07:48:56</v>
       </c>
       <c r="B32">
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="C32">
-        <v>61.88</v>
+        <v>59.1</v>
       </c>
       <c r="D32">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E32">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="F32">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-20 13:31:56</v>
+        <v>2023-09-21 11:25:46</v>
       </c>
       <c r="B33">
-        <v>45.28</v>
+        <v>44.8</v>
       </c>
       <c r="C33">
-        <v>58.31</v>
+        <v>57.93</v>
       </c>
       <c r="D33">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E33">
-        <v>44.7</v>
+        <v>46</v>
       </c>
       <c r="F33">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-20 17:12:47</v>
+        <v>2023-09-21 15:04:37</v>
       </c>
       <c r="B34">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>59.25</v>
+        <v>62.23</v>
       </c>
       <c r="D34">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E34">
-        <v>44.6</v>
+        <v>46</v>
       </c>
       <c r="F34">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-20 20:50:50</v>
+        <v>2023-09-21 18:43:33</v>
       </c>
       <c r="B35">
-        <v>43.99</v>
+        <v>45</v>
       </c>
       <c r="C35">
-        <v>58.16</v>
+        <v>58.81</v>
       </c>
       <c r="D35">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="E35">
-        <v>44.6</v>
+        <v>46</v>
       </c>
       <c r="F35">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-21 00:24:39</v>
+        <v>2023-09-22 22:49:56</v>
       </c>
       <c r="B36">
-        <v>44.49</v>
+        <v>43.8</v>
       </c>
       <c r="C36">
-        <v>59.18</v>
+        <v>59.92</v>
       </c>
       <c r="D36">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E36">
-        <v>44.6</v>
+        <v>43.2</v>
       </c>
       <c r="F36">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-21 00:33:05</v>
+        <v>2023-09-23 02:27:18</v>
       </c>
       <c r="B37">
-        <v>44.49</v>
+        <v>44.43</v>
       </c>
       <c r="C37">
-        <v>59.18</v>
+        <v>59.19</v>
       </c>
       <c r="D37">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E37">
-        <v>44.6</v>
+        <v>43.2</v>
       </c>
       <c r="F37">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-21 04:12:00</v>
+        <v>2023-09-23 06:26:44</v>
       </c>
       <c r="B38">
-        <v>45.74</v>
+        <v>44.43</v>
       </c>
       <c r="C38">
-        <v>64.34</v>
+        <v>60.87</v>
       </c>
       <c r="D38">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E38">
-        <v>44.6</v>
+        <v>43.2</v>
       </c>
       <c r="F38">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-21 07:48:56</v>
+        <v>2023-09-23 10:02:32</v>
       </c>
       <c r="B39">
-        <v>45</v>
+        <v>44.13</v>
       </c>
       <c r="C39">
-        <v>59.1</v>
+        <v>62.62</v>
       </c>
       <c r="D39">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E39">
-        <v>44.6</v>
+        <v>43.2</v>
       </c>
       <c r="F39">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-21 11:25:46</v>
+        <v>2023-09-23 13:39:42</v>
       </c>
       <c r="B40">
-        <v>44.8</v>
+        <v>43.49</v>
       </c>
       <c r="C40">
-        <v>57.93</v>
+        <v>56.34</v>
       </c>
       <c r="D40">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="E40">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F40">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-21 15:04:37</v>
+        <v>2023-09-23 13:49:34</v>
       </c>
       <c r="B41">
-        <v>45</v>
+        <v>43.49</v>
       </c>
       <c r="C41">
-        <v>62.23</v>
+        <v>56.85</v>
       </c>
       <c r="D41">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="E41">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F41">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-21 18:43:33</v>
+        <v>2023-09-23 17:28:36</v>
       </c>
       <c r="B42">
-        <v>45</v>
+        <v>43.9</v>
       </c>
       <c r="C42">
-        <v>58.81</v>
+        <v>62.55</v>
       </c>
       <c r="D42">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E42">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F42">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-22 22:49:56</v>
+        <v>2023-09-23 21:07:04</v>
       </c>
       <c r="B43">
-        <v>43.8</v>
+        <v>44.22</v>
       </c>
       <c r="C43">
-        <v>59.92</v>
+        <v>62.18</v>
       </c>
       <c r="D43">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E43">
-        <v>43.2</v>
+        <v>42.2</v>
       </c>
       <c r="F43">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-23 02:27:18</v>
+        <v>2023-09-24 00:48:28</v>
       </c>
       <c r="B44">
-        <v>44.43</v>
+        <v>45.9</v>
       </c>
       <c r="C44">
-        <v>59.19</v>
+        <v>61.67</v>
       </c>
       <c r="D44">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E44">
-        <v>43.2</v>
+        <v>42.4</v>
       </c>
       <c r="F44">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-23 06:26:44</v>
+        <v>2023-09-24 04:23:08</v>
       </c>
       <c r="B45">
-        <v>44.43</v>
+        <v>46</v>
       </c>
       <c r="C45">
-        <v>60.87</v>
+        <v>61.66</v>
       </c>
       <c r="D45">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E45">
-        <v>43.2</v>
+        <v>42.5</v>
       </c>
       <c r="F45">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-23 10:02:32</v>
+        <v>2023-09-24 07:57:41</v>
       </c>
       <c r="B46">
-        <v>44.13</v>
+        <v>44.22</v>
       </c>
       <c r="C46">
-        <v>62.62</v>
+        <v>59.32</v>
       </c>
       <c r="D46">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E46">
-        <v>43.2</v>
+        <v>42.2</v>
       </c>
       <c r="F46">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-23 13:39:42</v>
+        <v>2023-09-24 11:41:29</v>
       </c>
       <c r="B47">
-        <v>43.49</v>
+        <v>45.69</v>
       </c>
       <c r="C47">
-        <v>56.34</v>
+        <v>60.2</v>
       </c>
       <c r="D47">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="E47">
-        <v>43</v>
+        <v>42.4</v>
       </c>
       <c r="F47">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-23 13:49:34</v>
+        <v>2023-09-24 15:15:11</v>
       </c>
       <c r="B48">
-        <v>43.49</v>
+        <v>45.6</v>
       </c>
       <c r="C48">
-        <v>56.85</v>
+        <v>60.93</v>
       </c>
       <c r="D48">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="E48">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="F48">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-23 17:28:36</v>
+        <v>2023-09-24 15:21:06</v>
       </c>
       <c r="B49">
-        <v>43.9</v>
+        <v>45.5</v>
       </c>
       <c r="C49">
-        <v>62.55</v>
+        <v>60.93</v>
       </c>
       <c r="D49">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E49">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="F49">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-23 21:07:04</v>
+        <v>2023-09-24 18:59:51</v>
       </c>
       <c r="B50">
-        <v>44.22</v>
+        <v>45.19</v>
       </c>
       <c r="C50">
-        <v>62.18</v>
+        <v>61.44</v>
       </c>
       <c r="D50">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E50">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="F50">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-24 00:48:28</v>
+        <v>2023-09-24 22:40:15</v>
       </c>
       <c r="B51">
-        <v>45.9</v>
+        <v>45.19</v>
       </c>
       <c r="C51">
-        <v>61.67</v>
+        <v>59.98</v>
       </c>
       <c r="D51">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="E51">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="F51">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-24 04:23:08</v>
+        <v>2023-09-25 02:20:10</v>
       </c>
       <c r="B52">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52">
-        <v>61.66</v>
+        <v>62.32</v>
       </c>
       <c r="D52">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="E52">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="F52">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-24 07:57:41</v>
+        <v>2023-09-25 02:26:20</v>
       </c>
       <c r="B53">
-        <v>44.22</v>
+        <v>45</v>
       </c>
       <c r="C53">
-        <v>59.32</v>
+        <v>62.32</v>
       </c>
       <c r="D53">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E53">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="F53">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-24 11:41:29</v>
+        <v>2023-09-25 06:02:55</v>
       </c>
       <c r="B54">
-        <v>45.69</v>
+        <v>45</v>
       </c>
       <c r="C54">
-        <v>60.2</v>
+        <v>60.49</v>
       </c>
       <c r="D54">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E54">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="F54">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-24 15:15:11</v>
+        <v>2023-09-25 09:41:54</v>
       </c>
       <c r="B55">
-        <v>45.6</v>
+        <v>44.79</v>
       </c>
       <c r="C55">
-        <v>60.93</v>
+        <v>57.94</v>
       </c>
       <c r="D55">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="E55">
-        <v>42.5</v>
+        <v>42.2</v>
       </c>
       <c r="F55">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-24 15:21:06</v>
+        <v>2023-09-25 13:21:25</v>
       </c>
       <c r="B56">
-        <v>45.5</v>
+        <v>44.9</v>
       </c>
       <c r="C56">
-        <v>60.93</v>
+        <v>58.08</v>
       </c>
       <c r="D56">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E56">
-        <v>42.5</v>
+        <v>42.2</v>
       </c>
       <c r="F56">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-24 18:59:51</v>
+        <v>2023-09-25 16:55:07</v>
       </c>
       <c r="B57">
-        <v>45.19</v>
+        <v>43.46</v>
       </c>
       <c r="C57">
-        <v>61.44</v>
+        <v>60.78</v>
       </c>
       <c r="D57">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="E57">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="F57">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-24 22:40:15</v>
+        <v>2023-09-25 20:33:18</v>
       </c>
       <c r="B58">
-        <v>45.19</v>
+        <v>42.68</v>
       </c>
       <c r="C58">
-        <v>59.98</v>
+        <v>58.01</v>
       </c>
       <c r="D58">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E58">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="F58">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-25 02:20:10</v>
+        <v>2023-09-26 00:11:53</v>
       </c>
       <c r="B59">
-        <v>45</v>
+        <v>42.46</v>
       </c>
       <c r="C59">
-        <v>62.32</v>
+        <v>60.93</v>
       </c>
       <c r="D59">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="E59">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="F59">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-25 02:26:20</v>
+        <v>2023-09-26 03:54:43</v>
       </c>
       <c r="B60">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C60">
-        <v>62.32</v>
+        <v>62.37</v>
       </c>
       <c r="D60">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="E60">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="F60">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-25 06:02:55</v>
+        <v>2023-09-26 07:32:36</v>
       </c>
       <c r="B61">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C61">
-        <v>60.49</v>
+        <v>61.13</v>
       </c>
       <c r="D61">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="E61">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="F61">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-25 09:41:54</v>
+        <v>2023-09-26 11:11:01</v>
       </c>
       <c r="B62">
-        <v>44.79</v>
+        <v>42.89</v>
       </c>
       <c r="C62">
-        <v>57.94</v>
+        <v>63.18</v>
       </c>
       <c r="D62">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E62">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="F62">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-25 13:21:25</v>
+        <v>2023-09-26 14:51:24</v>
       </c>
       <c r="B63">
-        <v>44.9</v>
+        <v>43.52</v>
       </c>
       <c r="C63">
-        <v>58.08</v>
+        <v>63.18</v>
       </c>
       <c r="D63">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E63">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="F63">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-25 16:55:07</v>
+        <v>2023-09-26 18:26:18</v>
       </c>
       <c r="B64">
-        <v>43.46</v>
+        <v>43.44</v>
       </c>
       <c r="C64">
-        <v>60.78</v>
+        <v>62.44</v>
       </c>
       <c r="D64">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E64">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="F64">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-25 20:33:18</v>
+        <v>2023-09-26 22:06:49</v>
       </c>
       <c r="B65">
-        <v>42.68</v>
+        <v>41.99</v>
       </c>
       <c r="C65">
-        <v>58.01</v>
+        <v>59.3</v>
       </c>
       <c r="D65">
         <v>255</v>
       </c>
       <c r="E65">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="F65">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-26 00:11:53</v>
+        <v>2023-09-27 01:48:47</v>
       </c>
       <c r="B66">
-        <v>42.46</v>
+        <v>43.19</v>
       </c>
       <c r="C66">
-        <v>60.93</v>
+        <v>60.32</v>
       </c>
       <c r="D66">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E66">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="F66">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-26 03:54:43</v>
+        <v>2023-09-27 05:25:23</v>
       </c>
       <c r="B67">
-        <v>43</v>
+        <v>43.35</v>
       </c>
       <c r="C67">
-        <v>62.37</v>
+        <v>61.2</v>
       </c>
       <c r="D67">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E67">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="F67">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-26 07:32:36</v>
+        <v>2023-09-27 09:03:32</v>
       </c>
       <c r="B68">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C68">
-        <v>61.13</v>
+        <v>57.69</v>
       </c>
       <c r="D68">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E68">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="F68">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-26 11:11:01</v>
+        <v>2023-09-27 12:41:31</v>
       </c>
       <c r="B69">
-        <v>42.89</v>
+        <v>43.2</v>
       </c>
       <c r="C69">
-        <v>63.18</v>
+        <v>58.49</v>
       </c>
       <c r="D69">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E69">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="F69">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-26 14:51:24</v>
+        <v>2023-09-27 16:20:01</v>
       </c>
       <c r="B70">
-        <v>43.52</v>
+        <v>42.89</v>
       </c>
       <c r="C70">
-        <v>63.18</v>
+        <v>58.35</v>
       </c>
       <c r="D70">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E70">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="F70">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-26 18:26:18</v>
+        <v>2023-09-27 19:59:42</v>
       </c>
       <c r="B71">
-        <v>43.44</v>
+        <v>42.79</v>
       </c>
       <c r="C71">
-        <v>62.44</v>
+        <v>61.34</v>
       </c>
       <c r="D71">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E71">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="F71">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-26 22:06:49</v>
+        <v>2023-09-27 23:41:17</v>
       </c>
       <c r="B72">
-        <v>41.99</v>
+        <v>42.69</v>
       </c>
       <c r="C72">
-        <v>59.3</v>
+        <v>58.49</v>
       </c>
       <c r="D72">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E72">
-        <v>42.4</v>
+        <v>42</v>
       </c>
       <c r="F72">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-27 01:48:47</v>
+        <v>2023-09-28 03:19:52</v>
       </c>
       <c r="B73">
-        <v>43.19</v>
+        <v>43</v>
       </c>
       <c r="C73">
-        <v>60.32</v>
+        <v>58.86</v>
       </c>
       <c r="D73">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E73">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F73">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-27 05:25:23</v>
+        <v>2023-09-28 06:56:33</v>
       </c>
       <c r="B74">
-        <v>43.35</v>
+        <v>43.04</v>
       </c>
       <c r="C74">
-        <v>61.2</v>
+        <v>61.48</v>
       </c>
       <c r="D74">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E74">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F74">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-27 09:03:32</v>
+        <v>2023-09-28 10:31:49</v>
       </c>
       <c r="B75">
-        <v>42</v>
+        <v>42.89</v>
       </c>
       <c r="C75">
-        <v>57.69</v>
+        <v>61.85</v>
       </c>
       <c r="D75">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E75">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F75">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-27 12:41:31</v>
+        <v>2023-09-28 14:11:43</v>
       </c>
       <c r="B76">
         <v>43.2</v>
       </c>
       <c r="C76">
-        <v>58.49</v>
+        <v>61.7</v>
       </c>
       <c r="D76">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E76">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F76">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-27 16:20:01</v>
+        <v>2023-09-28 17:52:08</v>
       </c>
       <c r="B77">
-        <v>42.89</v>
+        <v>43.04</v>
       </c>
       <c r="C77">
-        <v>58.35</v>
+        <v>60.53</v>
       </c>
       <c r="D77">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E77">
-        <v>42</v>
+        <v>40.9</v>
       </c>
       <c r="F77">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-27 19:59:42</v>
+        <v>2023-09-28 21:31:41</v>
       </c>
       <c r="B78">
-        <v>42.79</v>
+        <v>42.01</v>
       </c>
       <c r="C78">
-        <v>61.34</v>
+        <v>61.92</v>
       </c>
       <c r="D78">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="E78">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F78">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-27 23:41:17</v>
+        <v>2023-09-29 01:12:49</v>
       </c>
       <c r="B79">
-        <v>42.69</v>
+        <v>40.99</v>
       </c>
       <c r="C79">
-        <v>58.49</v>
+        <v>58.85</v>
       </c>
       <c r="D79">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="E79">
-        <v>42</v>
+        <v>39.2</v>
       </c>
       <c r="F79">
         <v>27</v>
@@ -1862,79 +1862,79 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-28 03:19:52</v>
+        <v>2023-09-29 01:17:27</v>
       </c>
       <c r="B80">
-        <v>43</v>
+        <v>40.99</v>
       </c>
       <c r="C80">
-        <v>58.86</v>
+        <v>58.85</v>
       </c>
       <c r="D80">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="E80">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="F80">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-28 06:56:33</v>
+        <v>2023-09-29 04:54:18</v>
       </c>
       <c r="B81">
-        <v>43.04</v>
+        <v>40.89</v>
       </c>
       <c r="C81">
-        <v>61.48</v>
+        <v>62.2</v>
       </c>
       <c r="D81">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="E81">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="F81">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-28 10:31:49</v>
+        <v>2023-09-29 08:29:29</v>
       </c>
       <c r="B82">
-        <v>42.89</v>
+        <v>39</v>
       </c>
       <c r="C82">
-        <v>61.85</v>
+        <v>62.79</v>
       </c>
       <c r="D82">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="E82">
-        <v>41</v>
+        <v>39.29</v>
       </c>
       <c r="F82">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-28 14:11:43</v>
+        <v>2023-09-29 12:08:47</v>
       </c>
       <c r="B83">
-        <v>43.2</v>
+        <v>40.5</v>
       </c>
       <c r="C83">
-        <v>61.7</v>
+        <v>56.36</v>
       </c>
       <c r="D83">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="E83">
-        <v>41</v>
+        <v>39.29</v>
       </c>
       <c r="F83">
         <v>29</v>
@@ -1942,116 +1942,116 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-28 17:52:08</v>
+        <v>2023-09-29 15:49:09</v>
       </c>
       <c r="B84">
-        <v>43.04</v>
+        <v>41</v>
       </c>
       <c r="C84">
-        <v>60.53</v>
+        <v>58.41</v>
       </c>
       <c r="D84">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="E84">
-        <v>40.9</v>
+        <v>40.79</v>
       </c>
       <c r="F84">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-28 21:31:41</v>
+        <v>2023-09-29 19:25:24</v>
       </c>
       <c r="B85">
-        <v>42.01</v>
+        <v>40.79</v>
       </c>
       <c r="C85">
-        <v>61.92</v>
+        <v>63.81</v>
       </c>
       <c r="D85">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E85">
-        <v>40</v>
+        <v>39.29</v>
       </c>
       <c r="F85">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-29 01:12:49</v>
+        <v>2023-09-29 23:03:46</v>
       </c>
       <c r="B86">
-        <v>40.99</v>
+        <v>42.29</v>
       </c>
       <c r="C86">
-        <v>58.85</v>
+        <v>63.08</v>
       </c>
       <c r="D86">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E86">
         <v>39.2</v>
       </c>
       <c r="F86">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-29 01:17:27</v>
+        <v>2023-09-29 23:10:37</v>
       </c>
       <c r="B87">
-        <v>40.99</v>
+        <v>42.29</v>
       </c>
       <c r="C87">
-        <v>58.85</v>
+        <v>63.08</v>
       </c>
       <c r="D87">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E87">
         <v>39.2</v>
       </c>
       <c r="F87">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-29 04:54:18</v>
+        <v>2023-09-30 02:53:24</v>
       </c>
       <c r="B88">
-        <v>40.89</v>
+        <v>41.7</v>
       </c>
       <c r="C88">
-        <v>62.2</v>
+        <v>64.47</v>
       </c>
       <c r="D88">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E88">
-        <v>39.2</v>
+        <v>39.29</v>
       </c>
       <c r="F88">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-29 08:29:29</v>
+        <v>2023-09-30 06:33:41</v>
       </c>
       <c r="B89">
-        <v>39</v>
+        <v>41.69</v>
       </c>
       <c r="C89">
-        <v>62.79</v>
+        <v>64.42</v>
       </c>
       <c r="D89">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E89">
         <v>39.29</v>
@@ -2062,479 +2062,479 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-29 12:08:47</v>
+        <v>2023-09-30 10:10:39</v>
       </c>
       <c r="B90">
-        <v>40.5</v>
+        <v>39</v>
       </c>
       <c r="C90">
-        <v>56.36</v>
+        <v>67.12</v>
       </c>
       <c r="D90">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E90">
         <v>39.29</v>
       </c>
       <c r="F90">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-29 15:49:09</v>
+        <v>2023-09-30 13:47:43</v>
       </c>
       <c r="B91">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="C91">
-        <v>58.41</v>
+        <v>64.34</v>
       </c>
       <c r="D91">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E91">
-        <v>40.79</v>
+        <v>39.29</v>
       </c>
       <c r="F91">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-29 19:25:24</v>
+        <v>2023-09-30 17:24:46</v>
       </c>
       <c r="B92">
-        <v>40.79</v>
+        <v>41.1</v>
       </c>
       <c r="C92">
-        <v>63.81</v>
+        <v>68.2</v>
       </c>
       <c r="D92">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E92">
-        <v>39.29</v>
+        <v>39.5</v>
       </c>
       <c r="F92">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-29 23:03:46</v>
+        <v>2023-09-30 21:00:16</v>
       </c>
       <c r="B93">
-        <v>42.29</v>
+        <v>41</v>
       </c>
       <c r="C93">
-        <v>63.08</v>
+        <v>68.36</v>
       </c>
       <c r="D93">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E93">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="F93">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-29 23:10:37</v>
+        <v>2023-10-01 00:37:02</v>
       </c>
       <c r="B94">
-        <v>42.29</v>
+        <v>42.96</v>
       </c>
       <c r="C94">
-        <v>63.08</v>
+        <v>74.48</v>
       </c>
       <c r="D94">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E94">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="F94">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-30 02:53:24</v>
+        <v>2023-10-01 04:16:48</v>
       </c>
       <c r="B95">
-        <v>41.7</v>
+        <v>42.69</v>
       </c>
       <c r="C95">
-        <v>64.47</v>
+        <v>69.88</v>
       </c>
       <c r="D95">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E95">
-        <v>39.29</v>
+        <v>39.79</v>
       </c>
       <c r="F95">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-30 06:33:41</v>
+        <v>2023-10-01 07:54:51</v>
       </c>
       <c r="B96">
-        <v>41.69</v>
+        <v>41.9</v>
       </c>
       <c r="C96">
-        <v>64.42</v>
+        <v>68.28</v>
       </c>
       <c r="D96">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E96">
-        <v>39.29</v>
+        <v>40</v>
       </c>
       <c r="F96">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-30 10:10:39</v>
+        <v>2023-10-01 11:35:37</v>
       </c>
       <c r="B97">
-        <v>39</v>
+        <v>42.98</v>
       </c>
       <c r="C97">
-        <v>67.12</v>
+        <v>72.8</v>
       </c>
       <c r="D97">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E97">
-        <v>39.29</v>
+        <v>39.9</v>
       </c>
       <c r="F97">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-30 13:47:43</v>
+        <v>2023-10-01 15:15:57</v>
       </c>
       <c r="B98">
-        <v>40.6</v>
+        <v>42.88</v>
       </c>
       <c r="C98">
-        <v>64.34</v>
+        <v>72.95</v>
       </c>
       <c r="D98">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E98">
-        <v>39.29</v>
+        <v>40</v>
       </c>
       <c r="F98">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-30 17:24:46</v>
+        <v>2023-10-01 18:55:33</v>
       </c>
       <c r="B99">
-        <v>41.1</v>
+        <v>41.69</v>
       </c>
       <c r="C99">
-        <v>68.2</v>
+        <v>61.79</v>
       </c>
       <c r="D99">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E99">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="F99">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-30 21:00:16</v>
+        <v>2023-10-01 22:31:54</v>
       </c>
       <c r="B100">
+        <v>41.99</v>
+      </c>
+      <c r="C100">
+        <v>66.81</v>
+      </c>
+      <c r="D100">
+        <v>263</v>
+      </c>
+      <c r="E100">
+        <v>40</v>
+      </c>
+      <c r="F100">
         <v>41</v>
-      </c>
-      <c r="C100">
-        <v>68.36</v>
-      </c>
-      <c r="D100">
-        <v>283</v>
-      </c>
-      <c r="E100">
-        <v>39.6</v>
-      </c>
-      <c r="F100">
-        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-01 00:37:02</v>
+        <v>2023-10-02 02:13:48</v>
       </c>
       <c r="B101">
-        <v>42.96</v>
+        <v>41.98</v>
       </c>
       <c r="C101">
-        <v>74.48</v>
+        <v>68.28</v>
       </c>
       <c r="D101">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E101">
-        <v>39.7</v>
+        <v>40</v>
       </c>
       <c r="F101">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-01 04:16:48</v>
+        <v>2023-10-02 05:53:34</v>
       </c>
       <c r="B102">
-        <v>42.69</v>
+        <v>41.79</v>
       </c>
       <c r="C102">
-        <v>69.88</v>
+        <v>68.87</v>
       </c>
       <c r="D102">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="E102">
-        <v>39.79</v>
+        <v>40</v>
       </c>
       <c r="F102">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-01 07:54:51</v>
+        <v>2023-10-02 09:31:08</v>
       </c>
       <c r="B103">
-        <v>41.9</v>
+        <v>43</v>
       </c>
       <c r="C103">
-        <v>68.28</v>
+        <v>69.51</v>
       </c>
       <c r="D103">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="E103">
         <v>40</v>
       </c>
       <c r="F103">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-01 11:35:37</v>
+        <v>2023-10-02 13:06:44</v>
       </c>
       <c r="B104">
-        <v>42.98</v>
+        <v>43</v>
       </c>
       <c r="C104">
-        <v>72.8</v>
+        <v>69.51</v>
       </c>
       <c r="D104">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E104">
-        <v>39.9</v>
+        <v>41</v>
       </c>
       <c r="F104">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-01 15:15:57</v>
+        <v>2023-10-02 16:46:15</v>
       </c>
       <c r="B105">
-        <v>42.88</v>
+        <v>44.98</v>
       </c>
       <c r="C105">
-        <v>72.95</v>
+        <v>71.23</v>
       </c>
       <c r="D105">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="E105">
-        <v>40</v>
+        <v>41.1</v>
       </c>
       <c r="F105">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-01 18:55:33</v>
+        <v>2023-10-02 20:28:34</v>
       </c>
       <c r="B106">
-        <v>41.69</v>
+        <v>44.67</v>
       </c>
       <c r="C106">
-        <v>61.79</v>
+        <v>68.72</v>
       </c>
       <c r="D106">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="E106">
-        <v>40</v>
+        <v>41.5</v>
       </c>
       <c r="F106">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-01 22:31:54</v>
+        <v>2023-10-03 00:07:04</v>
       </c>
       <c r="B107">
-        <v>41.99</v>
+        <v>44.98</v>
       </c>
       <c r="C107">
-        <v>66.81</v>
+        <v>63.77</v>
       </c>
       <c r="D107">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E107">
-        <v>40</v>
+        <v>41.3</v>
       </c>
       <c r="F107">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-02 02:13:48</v>
+        <v>2023-10-03 03:47:22</v>
       </c>
       <c r="B108">
-        <v>41.98</v>
+        <v>44.98</v>
       </c>
       <c r="C108">
-        <v>68.28</v>
+        <v>70.3</v>
       </c>
       <c r="D108">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="E108">
-        <v>40</v>
+        <v>41.4</v>
       </c>
       <c r="F108">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-02 05:53:34</v>
+        <v>2023-10-03 07:25:53</v>
       </c>
       <c r="B109">
-        <v>41.79</v>
+        <v>44</v>
       </c>
       <c r="C109">
-        <v>68.87</v>
+        <v>68.02</v>
       </c>
       <c r="D109">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="E109">
-        <v>40</v>
+        <v>41.6</v>
       </c>
       <c r="F109">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-02 09:31:08</v>
+        <v>2023-10-03 11:02:09</v>
       </c>
       <c r="B110">
-        <v>43</v>
+        <v>44.99</v>
       </c>
       <c r="C110">
-        <v>69.51</v>
+        <v>68.23</v>
       </c>
       <c r="D110">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E110">
-        <v>40</v>
+        <v>41.6</v>
       </c>
       <c r="F110">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-02 13:06:44</v>
+        <v>2023-10-03 14:38:25</v>
       </c>
       <c r="B111">
-        <v>43</v>
+        <v>44.74</v>
       </c>
       <c r="C111">
-        <v>69.51</v>
+        <v>70.54</v>
       </c>
       <c r="D111">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="E111">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="F111">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-02 16:46:15</v>
+        <v>2023-10-03 14:42:45</v>
       </c>
       <c r="B112">
-        <v>44.98</v>
+        <v>44</v>
       </c>
       <c r="C112">
-        <v>71.23</v>
+        <v>70.54</v>
       </c>
       <c r="D112">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E112">
-        <v>41.1</v>
+        <v>41.5</v>
       </c>
       <c r="F112">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-02 20:28:34</v>
+        <v>2023-10-03 18:20:05</v>
       </c>
       <c r="B113">
-        <v>44.67</v>
+        <v>45.4</v>
       </c>
       <c r="C113">
-        <v>68.72</v>
+        <v>71.83</v>
       </c>
       <c r="D113">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="E113">
-        <v>41.5</v>
+        <v>41.8</v>
       </c>
       <c r="F113">
         <v>55</v>
@@ -2542,336 +2542,336 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-03 00:07:04</v>
+        <v>2023-10-03 21:56:16</v>
       </c>
       <c r="B114">
-        <v>44.98</v>
+        <v>44.99</v>
       </c>
       <c r="C114">
-        <v>63.77</v>
+        <v>69.17</v>
       </c>
       <c r="D114">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E114">
-        <v>41.3</v>
+        <v>41.8</v>
       </c>
       <c r="F114">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-03 03:47:22</v>
+        <v>2023-10-04 01:36:15</v>
       </c>
       <c r="B115">
-        <v>44.98</v>
+        <v>45.8</v>
       </c>
       <c r="C115">
-        <v>70.3</v>
+        <v>71.61</v>
       </c>
       <c r="D115">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E115">
-        <v>41.4</v>
+        <v>41.8</v>
       </c>
       <c r="F115">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-03 07:25:53</v>
+        <v>2023-10-04 05:18:48</v>
       </c>
       <c r="B116">
-        <v>44</v>
+        <v>45.6</v>
       </c>
       <c r="C116">
-        <v>68.02</v>
+        <v>64.78</v>
       </c>
       <c r="D116">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="E116">
-        <v>41.6</v>
+        <v>42.1</v>
       </c>
       <c r="F116">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-03 11:02:09</v>
+        <v>2023-10-04 08:58:52</v>
       </c>
       <c r="B117">
-        <v>44.99</v>
+        <v>45.8</v>
       </c>
       <c r="C117">
-        <v>68.23</v>
+        <v>68.66</v>
       </c>
       <c r="D117">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="E117">
-        <v>41.6</v>
+        <v>42.4</v>
       </c>
       <c r="F117">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-03 14:38:25</v>
+        <v>2023-10-04 09:04:38</v>
       </c>
       <c r="B118">
-        <v>44.74</v>
+        <v>45.8</v>
       </c>
       <c r="C118">
-        <v>70.54</v>
+        <v>68.66</v>
       </c>
       <c r="D118">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="E118">
-        <v>41.5</v>
+        <v>42.4</v>
       </c>
       <c r="F118">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-03 14:42:45</v>
+        <v>2023-10-04 12:41:14</v>
       </c>
       <c r="B119">
-        <v>44</v>
+        <v>45.8</v>
       </c>
       <c r="C119">
-        <v>70.54</v>
+        <v>71.54</v>
       </c>
       <c r="D119">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="E119">
-        <v>41.5</v>
+        <v>42.4</v>
       </c>
       <c r="F119">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-03 18:20:05</v>
+        <v>2023-10-04 16:17:19</v>
       </c>
       <c r="B120">
-        <v>45.4</v>
+        <v>45.9</v>
       </c>
       <c r="C120">
-        <v>71.83</v>
+        <v>69.81</v>
       </c>
       <c r="D120">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E120">
-        <v>41.8</v>
+        <v>43</v>
       </c>
       <c r="F120">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-03 21:56:16</v>
+        <v>2023-10-04 19:54:32</v>
       </c>
       <c r="B121">
-        <v>44.99</v>
+        <v>46</v>
       </c>
       <c r="C121">
-        <v>69.17</v>
+        <v>67.94</v>
       </c>
       <c r="D121">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E121">
-        <v>41.8</v>
+        <v>43</v>
       </c>
       <c r="F121">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-04 01:36:15</v>
+        <v>2023-10-04 23:34:11</v>
       </c>
       <c r="B122">
-        <v>45.8</v>
+        <v>45</v>
       </c>
       <c r="C122">
-        <v>71.61</v>
+        <v>70.68</v>
       </c>
       <c r="D122">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E122">
-        <v>41.8</v>
+        <v>43</v>
       </c>
       <c r="F122">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-04 05:18:48</v>
+        <v>2023-10-05 03:17:35</v>
       </c>
       <c r="B123">
-        <v>45.6</v>
+        <v>46</v>
       </c>
       <c r="C123">
-        <v>64.78</v>
+        <v>70.09</v>
       </c>
       <c r="D123">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E123">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="F123">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-04 08:58:52</v>
+        <v>2023-10-05 06:58:31</v>
       </c>
       <c r="B124">
-        <v>45.8</v>
+        <v>45.9</v>
       </c>
       <c r="C124">
-        <v>68.66</v>
+        <v>68.38</v>
       </c>
       <c r="D124">
         <v>228</v>
       </c>
       <c r="E124">
-        <v>42.4</v>
+        <v>43.1</v>
       </c>
       <c r="F124">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-04 09:04:38</v>
+        <v>2023-10-05 10:38:47</v>
       </c>
       <c r="B125">
-        <v>45.8</v>
+        <v>46.1</v>
       </c>
       <c r="C125">
-        <v>68.66</v>
+        <v>71.33</v>
       </c>
       <c r="D125">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E125">
-        <v>42.4</v>
+        <v>43.1</v>
       </c>
       <c r="F125">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-04 12:41:14</v>
+        <v>2023-10-05 14:16:23</v>
       </c>
       <c r="B126">
-        <v>45.8</v>
+        <v>46.2</v>
       </c>
       <c r="C126">
-        <v>71.54</v>
+        <v>71.48</v>
       </c>
       <c r="D126">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E126">
-        <v>42.4</v>
+        <v>43</v>
       </c>
       <c r="F126">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-04 16:17:19</v>
+        <v>2023-10-05 17:57:37</v>
       </c>
       <c r="B127">
-        <v>45.9</v>
+        <v>45.79</v>
       </c>
       <c r="C127">
-        <v>69.81</v>
+        <v>64.06</v>
       </c>
       <c r="D127">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="E127">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F127">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-04 19:54:32</v>
+        <v>2023-10-05 21:35:19</v>
       </c>
       <c r="B128">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="C128">
-        <v>67.94</v>
+        <v>67.88</v>
       </c>
       <c r="D128">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E128">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F128">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-04 23:34:11</v>
+        <v>2023-10-06 01:13:19</v>
       </c>
       <c r="B129">
-        <v>45</v>
+        <v>45.18</v>
       </c>
       <c r="C129">
-        <v>70.68</v>
+        <v>69.31</v>
       </c>
       <c r="D129">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="E129">
         <v>43</v>
       </c>
       <c r="F129">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-05 03:17:35</v>
+        <v>2023-10-06 04:48:48</v>
       </c>
       <c r="B130">
-        <v>46</v>
+        <v>45.78</v>
       </c>
       <c r="C130">
-        <v>70.09</v>
+        <v>71.2</v>
       </c>
       <c r="D130">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="E130">
         <v>43.1</v>
@@ -2882,1562 +2882,1582 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-05 06:58:31</v>
+        <v>2023-10-06 08:29:04</v>
       </c>
       <c r="B131">
-        <v>45.9</v>
+        <v>45</v>
       </c>
       <c r="C131">
-        <v>68.38</v>
+        <v>70.92</v>
       </c>
       <c r="D131">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="E131">
         <v>43.1</v>
       </c>
       <c r="F131">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-05 10:38:47</v>
+        <v>2023-10-06 12:07:50</v>
       </c>
       <c r="B132">
-        <v>46.1</v>
+        <v>45</v>
       </c>
       <c r="C132">
-        <v>71.33</v>
+        <v>70.92</v>
       </c>
       <c r="D132">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="E132">
         <v>43.1</v>
       </c>
       <c r="F132">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-05 14:16:23</v>
+        <v>2023-10-06 15:48:35</v>
       </c>
       <c r="B133">
-        <v>46.2</v>
+        <v>45.59</v>
       </c>
       <c r="C133">
-        <v>71.48</v>
+        <v>71.2</v>
       </c>
       <c r="D133">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="E133">
         <v>43</v>
       </c>
       <c r="F133">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-05 17:57:37</v>
+        <v>2023-10-06 19:29:35</v>
       </c>
       <c r="B134">
-        <v>45.79</v>
+        <v>45.14</v>
       </c>
       <c r="C134">
-        <v>64.06</v>
+        <v>70.42</v>
       </c>
       <c r="D134">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="E134">
-        <v>44</v>
+        <v>42.7</v>
       </c>
       <c r="F134">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-05 21:35:19</v>
+        <v>2023-10-06 23:09:41</v>
       </c>
       <c r="B135">
-        <v>45.5</v>
+        <v>43.9</v>
       </c>
       <c r="C135">
-        <v>67.88</v>
+        <v>67.47</v>
       </c>
       <c r="D135">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="E135">
-        <v>44</v>
+        <v>42.8</v>
       </c>
       <c r="F135">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-06 01:13:19</v>
+        <v>2023-10-07 02:44:39</v>
       </c>
       <c r="B136">
-        <v>45.18</v>
+        <v>44.5</v>
       </c>
       <c r="C136">
-        <v>69.31</v>
+        <v>67.97</v>
       </c>
       <c r="D136">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="E136">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="F136">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-06 04:48:48</v>
+        <v>2023-10-07 06:19:47</v>
       </c>
       <c r="B137">
-        <v>45.78</v>
+        <v>45.34</v>
       </c>
       <c r="C137">
-        <v>71.2</v>
+        <v>68.5</v>
       </c>
       <c r="D137">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E137">
-        <v>43.1</v>
+        <v>42.8</v>
       </c>
       <c r="F137">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-06 08:29:04</v>
+        <v>2023-10-07 09:58:21</v>
       </c>
       <c r="B138">
-        <v>45</v>
+        <v>45.46</v>
       </c>
       <c r="C138">
-        <v>70.92</v>
+        <v>70.95</v>
       </c>
       <c r="D138">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E138">
-        <v>43.1</v>
+        <v>42.8</v>
       </c>
       <c r="F138">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-06 12:07:50</v>
+        <v>2023-10-07 13:37:07</v>
       </c>
       <c r="B139">
-        <v>45</v>
+        <v>44.5</v>
       </c>
       <c r="C139">
-        <v>70.92</v>
+        <v>68.36</v>
       </c>
       <c r="D139">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E139">
-        <v>43.1</v>
+        <v>42.5</v>
       </c>
       <c r="F139">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-06 15:48:35</v>
+        <v>2023-10-07 17:18:50</v>
       </c>
       <c r="B140">
-        <v>45.59</v>
+        <v>44.5</v>
       </c>
       <c r="C140">
-        <v>71.2</v>
+        <v>68.06</v>
       </c>
       <c r="D140">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E140">
-        <v>43</v>
+        <v>42.3</v>
       </c>
       <c r="F140">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-06 19:29:35</v>
+        <v>2023-10-07 20:58:28</v>
       </c>
       <c r="B141">
-        <v>45.14</v>
+        <v>45</v>
       </c>
       <c r="C141">
-        <v>70.42</v>
+        <v>70.37</v>
       </c>
       <c r="D141">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E141">
-        <v>42.7</v>
+        <v>42.3</v>
       </c>
       <c r="F141">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-06 23:09:41</v>
+        <v>2023-10-08 00:37:24</v>
       </c>
       <c r="B142">
-        <v>43.9</v>
+        <v>44.7</v>
       </c>
       <c r="C142">
-        <v>67.47</v>
+        <v>70.37</v>
       </c>
       <c r="D142">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E142">
-        <v>42.8</v>
+        <v>42</v>
       </c>
       <c r="F142">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-07 02:44:39</v>
+        <v>2023-10-08 04:17:40</v>
       </c>
       <c r="B143">
-        <v>44.5</v>
+        <v>44.58</v>
       </c>
       <c r="C143">
-        <v>67.97</v>
+        <v>70.94</v>
       </c>
       <c r="D143">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E143">
-        <v>42.8</v>
+        <v>42</v>
       </c>
       <c r="F143">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-07 06:19:47</v>
+        <v>2023-10-08 07:58:23</v>
       </c>
       <c r="B144">
-        <v>45.34</v>
+        <v>44.48</v>
       </c>
       <c r="C144">
-        <v>68.5</v>
+        <v>70.51</v>
       </c>
       <c r="D144">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E144">
-        <v>42.8</v>
+        <v>42</v>
       </c>
       <c r="F144">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-07 09:58:21</v>
+        <v>2023-10-08 11:36:17</v>
       </c>
       <c r="B145">
-        <v>45.46</v>
+        <v>44.57</v>
       </c>
       <c r="C145">
-        <v>70.95</v>
+        <v>68.06</v>
       </c>
       <c r="D145">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E145">
-        <v>42.8</v>
+        <v>42</v>
       </c>
       <c r="F145">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-07 13:37:07</v>
+        <v>2023-10-08 15:14:12</v>
       </c>
       <c r="B146">
-        <v>44.5</v>
+        <v>44.27</v>
       </c>
       <c r="C146">
-        <v>68.36</v>
+        <v>67.56</v>
       </c>
       <c r="D146">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E146">
-        <v>42.5</v>
+        <v>43</v>
       </c>
       <c r="F146">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-07 17:18:50</v>
+        <v>2023-10-08 18:49:38</v>
       </c>
       <c r="B147">
-        <v>44.5</v>
+        <v>43.9</v>
       </c>
       <c r="C147">
-        <v>68.06</v>
+        <v>69.86</v>
       </c>
       <c r="D147">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E147">
-        <v>42.3</v>
+        <v>43</v>
       </c>
       <c r="F147">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-07 20:58:28</v>
+        <v>2023-10-08 22:27:53</v>
       </c>
       <c r="B148">
-        <v>45</v>
+        <v>43.6</v>
       </c>
       <c r="C148">
-        <v>70.37</v>
+        <v>67.92</v>
       </c>
       <c r="D148">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="E148">
-        <v>42.3</v>
+        <v>42.6</v>
       </c>
       <c r="F148">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-08 00:37:24</v>
+        <v>2023-10-09 02:07:46</v>
       </c>
       <c r="B149">
-        <v>44.7</v>
+        <v>43</v>
       </c>
       <c r="C149">
-        <v>70.37</v>
+        <v>66.98</v>
       </c>
       <c r="D149">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E149">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="F149">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-08 04:17:40</v>
+        <v>2023-10-09 05:48:37</v>
       </c>
       <c r="B150">
-        <v>44.58</v>
+        <v>44.36</v>
       </c>
       <c r="C150">
-        <v>70.94</v>
+        <v>71.52</v>
       </c>
       <c r="D150">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E150">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="F150">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-08 07:58:23</v>
+        <v>2023-10-09 09:29:24</v>
       </c>
       <c r="B151">
-        <v>44.48</v>
+        <v>44.25</v>
       </c>
       <c r="C151">
-        <v>70.51</v>
+        <v>68.48</v>
       </c>
       <c r="D151">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="E151">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="F151">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-08 11:36:17</v>
+        <v>2023-10-09 13:09:04</v>
       </c>
       <c r="B152">
-        <v>44.57</v>
+        <v>44.14</v>
       </c>
       <c r="C152">
-        <v>68.06</v>
+        <v>68.78</v>
       </c>
       <c r="D152">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E152">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="F152">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-08 15:14:12</v>
+        <v>2023-10-09 16:45:36</v>
       </c>
       <c r="B153">
-        <v>44.27</v>
+        <v>42.9</v>
       </c>
       <c r="C153">
-        <v>67.56</v>
+        <v>72.09</v>
       </c>
       <c r="D153">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E153">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F153">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-08 18:49:38</v>
+        <v>2023-10-09 20:21:29</v>
       </c>
       <c r="B154">
-        <v>43.9</v>
+        <v>44.14</v>
       </c>
       <c r="C154">
-        <v>69.86</v>
+        <v>72.09</v>
       </c>
       <c r="D154">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E154">
-        <v>43</v>
+        <v>42.3</v>
       </c>
       <c r="F154">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-08 22:27:53</v>
+        <v>2023-10-09 23:59:40</v>
       </c>
       <c r="B155">
-        <v>43.6</v>
+        <v>44.27</v>
       </c>
       <c r="C155">
-        <v>67.92</v>
+        <v>71.37</v>
       </c>
       <c r="D155">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="E155">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="F155">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-09 02:07:46</v>
+        <v>2023-10-10 03:38:19</v>
       </c>
       <c r="B156">
-        <v>43</v>
+        <v>45.55</v>
       </c>
       <c r="C156">
-        <v>66.98</v>
+        <v>66.34</v>
       </c>
       <c r="D156">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="E156">
-        <v>42.1</v>
+        <v>42.6</v>
       </c>
       <c r="F156">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-09 05:48:37</v>
+        <v>2023-10-10 07:19:34</v>
       </c>
       <c r="B157">
-        <v>44.36</v>
+        <v>44.32</v>
       </c>
       <c r="C157">
-        <v>71.52</v>
+        <v>68.76</v>
       </c>
       <c r="D157">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="E157">
-        <v>42.1</v>
+        <v>42.7</v>
       </c>
       <c r="F157">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-09 09:29:24</v>
+        <v>2023-10-10 10:59:40</v>
       </c>
       <c r="B158">
-        <v>44.25</v>
+        <v>45.85</v>
       </c>
       <c r="C158">
-        <v>68.48</v>
+        <v>71.9</v>
       </c>
       <c r="D158">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="E158">
-        <v>42.1</v>
+        <v>43</v>
       </c>
       <c r="F158">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-09 13:09:04</v>
+        <v>2023-10-10 14:38:59</v>
       </c>
       <c r="B159">
-        <v>44.14</v>
+        <v>45</v>
       </c>
       <c r="C159">
-        <v>68.78</v>
+        <v>71.45</v>
       </c>
       <c r="D159">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="E159">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="F159">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-09 16:45:36</v>
+        <v>2023-10-10 18:18:08</v>
       </c>
       <c r="B160">
-        <v>42.9</v>
+        <v>44.9</v>
       </c>
       <c r="C160">
-        <v>72.09</v>
+        <v>68.98</v>
       </c>
       <c r="D160">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="E160">
-        <v>42</v>
+        <v>43.2</v>
       </c>
       <c r="F160">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-09 20:21:29</v>
+        <v>2023-10-10 21:59:47</v>
       </c>
       <c r="B161">
-        <v>44.14</v>
+        <v>45.85</v>
       </c>
       <c r="C161">
-        <v>72.09</v>
+        <v>71.23</v>
       </c>
       <c r="D161">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="E161">
-        <v>42.3</v>
+        <v>43.6</v>
       </c>
       <c r="F161">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-09 23:59:40</v>
+        <v>2023-10-11 01:37:21</v>
       </c>
       <c r="B162">
-        <v>44.27</v>
+        <v>45.85</v>
       </c>
       <c r="C162">
-        <v>71.37</v>
+        <v>70.51</v>
       </c>
       <c r="D162">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E162">
-        <v>42.4</v>
+        <v>44.8</v>
       </c>
       <c r="F162">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-10 03:38:19</v>
+        <v>2023-10-11 05:10:59</v>
       </c>
       <c r="B163">
-        <v>45.55</v>
+        <v>46.99</v>
       </c>
       <c r="C163">
-        <v>66.34</v>
+        <v>72.59</v>
       </c>
       <c r="D163">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E163">
-        <v>42.6</v>
+        <v>44.9</v>
       </c>
       <c r="F163">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-10 07:19:34</v>
+        <v>2023-10-11 08:50:13</v>
       </c>
       <c r="B164">
-        <v>44.32</v>
+        <v>46.9</v>
       </c>
       <c r="C164">
-        <v>68.76</v>
+        <v>72.37</v>
       </c>
       <c r="D164">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E164">
-        <v>42.7</v>
+        <v>44.9</v>
       </c>
       <c r="F164">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-10 10:59:40</v>
+        <v>2023-10-11 12:31:41</v>
       </c>
       <c r="B165">
-        <v>45.85</v>
+        <v>47</v>
       </c>
       <c r="C165">
-        <v>71.9</v>
+        <v>72.95</v>
       </c>
       <c r="D165">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E165">
-        <v>43</v>
+        <v>44.9</v>
       </c>
       <c r="F165">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-10 14:38:59</v>
+        <v>2023-10-11 16:09:50</v>
       </c>
       <c r="B166">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="C166">
-        <v>71.45</v>
+        <v>72.23</v>
       </c>
       <c r="D166">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E166">
-        <v>43.1</v>
+        <v>44.9</v>
       </c>
       <c r="F166">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-10 18:18:08</v>
+        <v>2023-10-11 19:52:11</v>
       </c>
       <c r="B167">
-        <v>44.9</v>
+        <v>44.7</v>
       </c>
       <c r="C167">
-        <v>68.98</v>
+        <v>69.89</v>
       </c>
       <c r="D167">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E167">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="F167">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-10 21:59:47</v>
+        <v>2023-10-11 23:31:42</v>
       </c>
       <c r="B168">
-        <v>45.85</v>
+        <v>45.9</v>
       </c>
       <c r="C168">
-        <v>71.23</v>
+        <v>70.04</v>
       </c>
       <c r="D168">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E168">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="F168">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-11 01:37:21</v>
+        <v>2023-10-12 03:11:07</v>
       </c>
       <c r="B169">
-        <v>45.85</v>
+        <v>48</v>
       </c>
       <c r="C169">
-        <v>70.51</v>
+        <v>72.73</v>
       </c>
       <c r="D169">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="E169">
-        <v>44.8</v>
+        <v>44.1</v>
       </c>
       <c r="F169">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-11 05:10:59</v>
+        <v>2023-10-12 06:47:57</v>
       </c>
       <c r="B170">
-        <v>46.99</v>
+        <v>47.6</v>
       </c>
       <c r="C170">
-        <v>72.59</v>
+        <v>73.59</v>
       </c>
       <c r="D170">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E170">
-        <v>44.9</v>
+        <v>45.8</v>
       </c>
       <c r="F170">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-11 08:50:13</v>
+        <v>2023-10-12 10:25:16</v>
       </c>
       <c r="B171">
-        <v>46.9</v>
+        <v>47.98</v>
       </c>
       <c r="C171">
-        <v>72.37</v>
+        <v>73.59</v>
       </c>
       <c r="D171">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E171">
-        <v>44.9</v>
+        <v>45.9</v>
       </c>
       <c r="F171">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-11 12:31:41</v>
+        <v>2023-10-12 14:03:37</v>
       </c>
       <c r="B172">
-        <v>47</v>
+        <v>47.89</v>
       </c>
       <c r="C172">
-        <v>72.95</v>
+        <v>75.7</v>
       </c>
       <c r="D172">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E172">
-        <v>44.9</v>
+        <v>45.9</v>
       </c>
       <c r="F172">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-11 16:09:50</v>
+        <v>2023-10-12 17:40:30</v>
       </c>
       <c r="B173">
-        <v>44.8</v>
+        <v>46.9</v>
       </c>
       <c r="C173">
-        <v>72.23</v>
+        <v>75.84</v>
       </c>
       <c r="D173">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="E173">
-        <v>44.9</v>
+        <v>46</v>
       </c>
       <c r="F173">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-11 19:52:11</v>
+        <v>2023-10-12 21:22:34</v>
       </c>
       <c r="B174">
-        <v>44.7</v>
+        <v>48</v>
       </c>
       <c r="C174">
-        <v>69.89</v>
+        <v>75.93</v>
       </c>
       <c r="D174">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E174">
-        <v>43.4</v>
+        <v>46.1</v>
       </c>
       <c r="F174">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-11 23:31:42</v>
+        <v>2023-10-13 01:01:48</v>
       </c>
       <c r="B175">
-        <v>45.9</v>
+        <v>48.99</v>
       </c>
       <c r="C175">
-        <v>70.04</v>
+        <v>70.23</v>
       </c>
       <c r="D175">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E175">
-        <v>43.8</v>
+        <v>46.2</v>
       </c>
       <c r="F175">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-12 03:11:07</v>
+        <v>2023-10-13 04:41:34</v>
       </c>
       <c r="B176">
-        <v>48</v>
+        <v>49.5</v>
       </c>
       <c r="C176">
-        <v>72.73</v>
+        <v>72.88</v>
       </c>
       <c r="D176">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E176">
-        <v>44.1</v>
+        <v>46.3</v>
       </c>
       <c r="F176">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-12 06:47:57</v>
+        <v>2023-10-13 08:23:01</v>
       </c>
       <c r="B177">
-        <v>47.6</v>
+        <v>49.74</v>
       </c>
       <c r="C177">
-        <v>73.59</v>
+        <v>77.84</v>
       </c>
       <c r="D177">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E177">
-        <v>45.8</v>
+        <v>46.4</v>
       </c>
       <c r="F177">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-12 10:25:16</v>
+        <v>2023-10-13 12:03:03</v>
       </c>
       <c r="B178">
-        <v>47.98</v>
+        <v>48.8</v>
       </c>
       <c r="C178">
-        <v>73.59</v>
+        <v>77.26</v>
       </c>
       <c r="D178">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E178">
-        <v>45.9</v>
+        <v>46.4</v>
       </c>
       <c r="F178">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-12 14:03:37</v>
+        <v>2023-10-13 15:41:27</v>
       </c>
       <c r="B179">
-        <v>47.89</v>
+        <v>46.49</v>
       </c>
       <c r="C179">
-        <v>75.7</v>
+        <v>71.13</v>
       </c>
       <c r="D179">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E179">
-        <v>45.9</v>
+        <v>46.5</v>
       </c>
       <c r="F179">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-12 17:40:30</v>
+        <v>2023-10-13 19:18:16</v>
       </c>
       <c r="B180">
-        <v>46.9</v>
+        <v>47.8</v>
       </c>
       <c r="C180">
-        <v>75.84</v>
+        <v>75.95</v>
       </c>
       <c r="D180">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E180">
-        <v>46</v>
+        <v>46.5</v>
       </c>
       <c r="F180">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-12 21:22:34</v>
+        <v>2023-10-13 22:55:10</v>
       </c>
       <c r="B181">
-        <v>48</v>
+        <v>49.8</v>
       </c>
       <c r="C181">
-        <v>75.93</v>
+        <v>76.17</v>
       </c>
       <c r="D181">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E181">
-        <v>46.1</v>
+        <v>46.5</v>
       </c>
       <c r="F181">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-13 01:01:48</v>
+        <v>2023-10-13 23:01:48</v>
       </c>
       <c r="B182">
-        <v>48.99</v>
+        <v>49.8</v>
       </c>
       <c r="C182">
-        <v>70.23</v>
+        <v>76.17</v>
       </c>
       <c r="D182">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E182">
-        <v>46.2</v>
+        <v>46.5</v>
       </c>
       <c r="F182">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-13 04:41:34</v>
+        <v>2023-10-14 02:41:12</v>
       </c>
       <c r="B183">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C183">
-        <v>72.88</v>
+        <v>76.68</v>
       </c>
       <c r="D183">
         <v>201</v>
       </c>
       <c r="E183">
-        <v>46.3</v>
+        <v>46.5</v>
       </c>
       <c r="F183">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-13 08:23:01</v>
+        <v>2023-10-14 06:19:58</v>
       </c>
       <c r="B184">
-        <v>49.74</v>
+        <v>49</v>
       </c>
       <c r="C184">
-        <v>77.84</v>
+        <v>74.88</v>
       </c>
       <c r="D184">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E184">
-        <v>46.4</v>
+        <v>46.2</v>
       </c>
       <c r="F184">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-13 12:03:03</v>
+        <v>2023-10-14 09:55:26</v>
       </c>
       <c r="B185">
-        <v>48.8</v>
+        <v>49.85</v>
       </c>
       <c r="C185">
-        <v>77.26</v>
+        <v>76.84</v>
       </c>
       <c r="D185">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E185">
-        <v>46.4</v>
+        <v>46.2</v>
       </c>
       <c r="F185">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2023-10-13 15:41:27</v>
+        <v>2023-10-14 10:00:41</v>
       </c>
       <c r="B186">
-        <v>46.49</v>
+        <v>49.85</v>
       </c>
       <c r="C186">
-        <v>71.13</v>
+        <v>76.84</v>
       </c>
       <c r="D186">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E186">
-        <v>46.5</v>
+        <v>46.2</v>
       </c>
       <c r="F186">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2023-10-13 19:18:16</v>
+        <v>2023-10-14 13:43:10</v>
       </c>
       <c r="B187">
-        <v>47.8</v>
+        <v>49.63</v>
       </c>
       <c r="C187">
-        <v>75.95</v>
+        <v>81.02</v>
       </c>
       <c r="D187">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E187">
-        <v>46.5</v>
+        <v>46.2</v>
       </c>
       <c r="F187">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2023-10-13 22:55:10</v>
+        <v>2023-10-14 17:20:36</v>
       </c>
       <c r="B188">
-        <v>49.8</v>
+        <v>48.2</v>
       </c>
       <c r="C188">
-        <v>76.17</v>
+        <v>80.8</v>
       </c>
       <c r="D188">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E188">
-        <v>46.5</v>
+        <v>46</v>
       </c>
       <c r="F188">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2023-10-13 23:01:48</v>
+        <v>2023-10-14 20:57:59</v>
       </c>
       <c r="B189">
-        <v>49.8</v>
+        <v>46.9</v>
       </c>
       <c r="C189">
-        <v>76.17</v>
+        <v>75.98</v>
       </c>
       <c r="D189">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E189">
-        <v>46.5</v>
+        <v>46</v>
       </c>
       <c r="F189">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>2023-10-14 02:41:12</v>
+        <v>2023-10-15 00:34:59</v>
       </c>
       <c r="B190">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="C190">
-        <v>76.68</v>
+        <v>75.03</v>
       </c>
       <c r="D190">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E190">
-        <v>46.5</v>
+        <v>45</v>
       </c>
       <c r="F190">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>2023-10-14 06:19:58</v>
+        <v>2023-10-15 04:12:37</v>
       </c>
       <c r="B191">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="C191">
-        <v>74.88</v>
+        <v>78.38</v>
       </c>
       <c r="D191">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E191">
-        <v>46.2</v>
+        <v>45.2</v>
       </c>
       <c r="F191">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>2023-10-14 09:55:26</v>
+        <v>2023-10-15 07:51:01</v>
       </c>
       <c r="B192">
-        <v>49.85</v>
+        <v>49.19</v>
       </c>
       <c r="C192">
-        <v>76.84</v>
+        <v>72.75</v>
       </c>
       <c r="D192">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E192">
-        <v>46.2</v>
+        <v>45.1</v>
       </c>
       <c r="F192">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>2023-10-14 10:00:41</v>
+        <v>2023-10-15 11:31:20</v>
       </c>
       <c r="B193">
-        <v>49.85</v>
+        <v>48.79</v>
       </c>
       <c r="C193">
-        <v>76.84</v>
+        <v>72.81</v>
       </c>
       <c r="D193">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E193">
-        <v>46.2</v>
+        <v>45.1</v>
       </c>
       <c r="F193">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>2023-10-14 13:43:10</v>
+        <v>2023-10-15 15:11:05</v>
       </c>
       <c r="B194">
-        <v>49.63</v>
+        <v>47.8</v>
       </c>
       <c r="C194">
-        <v>81.02</v>
+        <v>74.87</v>
       </c>
       <c r="D194">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E194">
-        <v>46.2</v>
+        <v>45.1</v>
       </c>
       <c r="F194">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>2023-10-14 17:20:36</v>
+        <v>2023-10-15 18:51:10</v>
       </c>
       <c r="B195">
-        <v>48.2</v>
+        <v>47.8</v>
       </c>
       <c r="C195">
-        <v>80.8</v>
+        <v>74.87</v>
       </c>
       <c r="D195">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E195">
-        <v>46</v>
+        <v>43.8</v>
       </c>
       <c r="F195">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>2023-10-14 20:57:59</v>
+        <v>2023-10-15 22:33:28</v>
       </c>
       <c r="B196">
-        <v>46.9</v>
+        <v>47.65</v>
       </c>
       <c r="C196">
-        <v>75.98</v>
+        <v>77.28</v>
       </c>
       <c r="D196">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E196">
-        <v>46</v>
+        <v>43.9</v>
       </c>
       <c r="F196">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>2023-10-15 00:34:59</v>
+        <v>2023-10-16 02:12:17</v>
       </c>
       <c r="B197">
-        <v>49.5</v>
+        <v>46</v>
       </c>
       <c r="C197">
-        <v>75.03</v>
+        <v>72.53</v>
       </c>
       <c r="D197">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E197">
-        <v>45</v>
+        <v>43.9</v>
       </c>
       <c r="F197">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>2023-10-15 04:12:37</v>
+        <v>2023-10-16 05:51:34</v>
       </c>
       <c r="B198">
-        <v>49.4</v>
+        <v>47.85</v>
       </c>
       <c r="C198">
-        <v>78.38</v>
+        <v>79.68</v>
       </c>
       <c r="D198">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E198">
-        <v>45.2</v>
+        <v>44.1</v>
       </c>
       <c r="F198">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>2023-10-15 07:51:01</v>
+        <v>2023-10-16 09:30:33</v>
       </c>
       <c r="B199">
-        <v>49.19</v>
+        <v>48</v>
       </c>
       <c r="C199">
-        <v>72.75</v>
+        <v>73.56</v>
       </c>
       <c r="D199">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E199">
-        <v>45.1</v>
+        <v>44.1</v>
       </c>
       <c r="F199">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>2023-10-15 11:31:20</v>
+        <v>2023-10-16 13:07:13</v>
       </c>
       <c r="B200">
-        <v>48.79</v>
+        <v>47</v>
       </c>
       <c r="C200">
-        <v>72.81</v>
+        <v>78.95</v>
       </c>
       <c r="D200">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E200">
-        <v>45.1</v>
+        <v>44.1</v>
       </c>
       <c r="F200">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2023-10-15 15:11:05</v>
+        <v>2023-10-16 13:12:34</v>
       </c>
       <c r="B201">
-        <v>47.8</v>
+        <v>46.9</v>
       </c>
       <c r="C201">
-        <v>74.87</v>
+        <v>78.95</v>
       </c>
       <c r="D201">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E201">
-        <v>45.1</v>
+        <v>44.1</v>
       </c>
       <c r="F201">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>2023-10-15 18:51:10</v>
+        <v>2023-10-16 16:52:49</v>
       </c>
       <c r="B202">
-        <v>47.8</v>
+        <v>46.8</v>
       </c>
       <c r="C202">
-        <v>74.87</v>
+        <v>72.93</v>
       </c>
       <c r="D202">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E202">
-        <v>43.8</v>
+        <v>44.3</v>
       </c>
       <c r="F202">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>2023-10-15 22:33:28</v>
+        <v>2023-10-16 20:31:52</v>
       </c>
       <c r="B203">
-        <v>47.65</v>
+        <v>45.9</v>
       </c>
       <c r="C203">
-        <v>77.28</v>
+        <v>74.72</v>
       </c>
       <c r="D203">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E203">
-        <v>43.9</v>
+        <v>44.7</v>
       </c>
       <c r="F203">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>2023-10-16 02:12:17</v>
+        <v>2023-10-17 00:12:00</v>
       </c>
       <c r="B204">
-        <v>46</v>
+        <v>48.8</v>
       </c>
       <c r="C204">
-        <v>72.53</v>
+        <v>69.7</v>
       </c>
       <c r="D204">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E204">
-        <v>43.9</v>
+        <v>45</v>
       </c>
       <c r="F204">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>2023-10-16 05:51:34</v>
+        <v>2023-10-17 03:54:28</v>
       </c>
       <c r="B205">
-        <v>47.85</v>
+        <v>49</v>
       </c>
       <c r="C205">
-        <v>79.68</v>
+        <v>79.91</v>
       </c>
       <c r="D205">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E205">
-        <v>44.1</v>
+        <v>45</v>
       </c>
       <c r="F205">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>2023-10-16 09:30:33</v>
+        <v>2023-10-17 07:31:53</v>
       </c>
       <c r="B206">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C206">
-        <v>73.56</v>
+        <v>79.98</v>
       </c>
       <c r="D206">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E206">
-        <v>44.1</v>
+        <v>44.8</v>
       </c>
       <c r="F206">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>2023-10-16 13:07:13</v>
+        <v>2023-10-17 11:05:17</v>
       </c>
       <c r="B207">
-        <v>47</v>
+        <v>48.9</v>
       </c>
       <c r="C207">
-        <v>78.95</v>
+        <v>76.77</v>
       </c>
       <c r="D207">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E207">
-        <v>44.1</v>
+        <v>45</v>
       </c>
       <c r="F207">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>2023-10-16 13:12:34</v>
+        <v>2023-10-17 11:09:32</v>
       </c>
       <c r="B208">
-        <v>46.9</v>
+        <v>48.9</v>
       </c>
       <c r="C208">
-        <v>78.95</v>
+        <v>76.77</v>
       </c>
       <c r="D208">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E208">
-        <v>44.1</v>
+        <v>45</v>
       </c>
       <c r="F208">
-        <v>61</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>2023-10-17 14:47:15</v>
+      </c>
+      <c r="B209">
+        <v>48.6</v>
+      </c>
+      <c r="C209">
+        <v>79.62</v>
+      </c>
+      <c r="D209">
+        <v>192</v>
+      </c>
+      <c r="E209">
+        <v>45</v>
+      </c>
+      <c r="F209">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4449,7 +4469,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F208"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F209"/>
   </ignoredErrors>
 </worksheet>
 </file>